--- a/Task-2/ERTabloDönüşümü.xlsx
+++ b/Task-2/ERTabloDönüşümü.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tasta\Desktop\veritabani-yonetim-sistemleri\Task-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80713DF2-BD8E-4BF0-91C6-BD0C64E684CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25407FF-F4D3-4FC8-B2EB-72FBE7AF55D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FD159A6F-EE07-4CC4-80C9-63E4576A9E97}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8880" xr2:uid="{FD159A6F-EE07-4CC4-80C9-63E4576A9E97}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLES" sheetId="1" r:id="rId1"/>
@@ -246,10 +246,10 @@
     <t>KİTAP_KATEGORİ</t>
   </si>
   <si>
-    <t>UNIQUE</t>
-  </si>
-  <si>
     <t>KİTAP_YAZAR</t>
+  </si>
+  <si>
+    <t>PK/FK</t>
   </si>
 </sst>
 </file>
@@ -715,7 +715,7 @@
   <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -989,7 +989,7 @@
       </c>
       <c r="J10" s="10"/>
       <c r="M10" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N10" s="10"/>
     </row>
@@ -1016,7 +1016,7 @@
         <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>26</v>
@@ -1025,7 +1025,7 @@
         <v>13</v>
       </c>
       <c r="O11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
@@ -1042,7 +1042,7 @@
         <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>31</v>
@@ -1051,7 +1051,7 @@
         <v>13</v>
       </c>
       <c r="K12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M12" s="5" t="s">
         <v>33</v>
@@ -1060,7 +1060,7 @@
         <v>13</v>
       </c>
       <c r="O12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
@@ -1077,7 +1077,7 @@
         <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
